--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA959AD0-A844-48A8-9362-9A9BD4A1D0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE0703-10E3-421B-B5AC-FC7C5D778C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="4236" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4812" yWindow="360" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE0703-10E3-421B-B5AC-FC7C5D778C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11699B-C955-4CC1-8A5C-CA686128D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4812" yWindow="360" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8010" yWindow="225" windowWidth="14400" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>long</t>
   </si>
@@ -78,6 +78,84 @@
   <si>
     <t>[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-1</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-2</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-9</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-10</t>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He will.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
   </si>
 </sst>
 </file>
@@ -414,20 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -455,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -469,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -483,7 +562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -497,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -511,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -523,6 +602,146 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11699B-C955-4CC1-8A5C-CA686128D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5B585-701C-4C01-A112-FC1352FB8A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8010" yWindow="225" windowWidth="14400" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3570" yWindow="2460" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>long</t>
   </si>
@@ -156,6 +165,228 @@
   </si>
   <si>
     <t>[16]</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-9</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-10</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-11</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-12</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-13</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-14</t>
+  </si>
+  <si>
+    <t>Jump-DangerousMission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-DefensiveBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If we failed…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't risk here...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He needs no help…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is his war too…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（He's so quite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（I should encourage him)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am glad...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(He's right…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Motherland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
   </si>
 </sst>
 </file>
@@ -178,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,12 +441,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,14 +845,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -623,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -637,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -651,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -665,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
@@ -679,10 +919,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -693,10 +933,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -707,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
@@ -721,10 +961,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
@@ -735,13 +975,489 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5B585-701C-4C01-A112-FC1352FB8A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC2410D-1E16-47F6-9C01-49F69421A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3570" yWindow="2460" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27285" yWindow="3803" windowWidth="3600" windowHeight="1994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>[15]</t>
   </si>
   <si>
-    <t>[16]</t>
-  </si>
-  <si>
     <t>Jump-VillageBoy-B-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +384,10 @@
   </si>
   <si>
     <t>[50]</t>
+  </si>
+  <si>
+    <t>[16,51]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -992,10 +993,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1020,10 +1021,10 @@
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,13 +1032,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,13 +1046,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,13 +1060,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,10 +1077,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1090,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,13 +1102,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,13 +1116,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,13 +1130,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,13 +1144,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,13 +1158,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,13 +1172,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,13 +1186,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,13 +1200,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,13 +1214,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,13 +1228,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,13 +1242,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,13 +1270,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,13 +1284,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,13 +1298,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,13 +1312,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,13 +1326,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1340,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,13 +1354,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1368,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,13 +1382,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1395,13 +1396,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,13 +1410,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,13 +1424,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,13 +1438,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,13 +1452,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC2410D-1E16-47F6-9C01-49F69421A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BA483-0526-4435-839B-A03916166EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27285" yWindow="3803" windowWidth="3600" windowHeight="1994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
     <t>[50]</t>
   </si>
   <si>
-    <t>[16,51]</t>
+    <t>[16,51,52,53,54]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BA483-0526-4435-839B-A03916166EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407AD99-2A53-4A44-A2AE-8522C73693D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F407AD99-2A53-4A44-A2AE-8522C73693D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E0723-477C-43A6-8C9B-905390BF90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
     <t>[50]</t>
   </si>
   <si>
-    <t>[16,51,52,53,54]</t>
+    <t>[16,51,52,53,54,55,56,57,58]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E0723-477C-43A6-8C9B-905390BF90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75F04E-70CC-41BF-A76D-B37AD397BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,323 +70,327 @@
     <t>option4</t>
   </si>
   <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-1</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-2</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-9</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-10</t>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He will.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-9</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-10</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-11</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-12</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-13</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-14</t>
+  </si>
+  <si>
+    <t>Jump-DangerousMission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-DefensiveBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If we failed…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't risk here...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He needs no help…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is his war too…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（He's so quite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（I should encourage him)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am glad...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(He's right…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Motherland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,51,52]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17,53,54]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31,55,56]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[43,57,58]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>option5</t>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-1</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-2</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-3</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-4</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-5</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-6</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-7</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-8</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-9</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-A-10</t>
-  </si>
-  <si>
-    <t>......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sure.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He will.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>......?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>[14]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-3</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-4</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-5</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-6</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-7</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-8</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-9</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-10</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-11</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-12</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-13</t>
-  </si>
-  <si>
-    <t>Jump-VillageBoy-B-14</t>
-  </si>
-  <si>
-    <t>Jump-DangerousMission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump-DefensiveBreak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Our task.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If we failed…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We can't risk here...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He needs no help…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is his war too…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（He's so quite)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（I should encourage him)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am glad...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not true.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Well……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(He's right…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I understand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Motherland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>[18]</t>
-  </si>
-  <si>
-    <t>[19]</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>[21]</t>
-  </si>
-  <si>
-    <t>[22]</t>
-  </si>
-  <si>
-    <t>[23]</t>
-  </si>
-  <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[26]</t>
-  </si>
-  <si>
-    <t>[27]</t>
-  </si>
-  <si>
-    <t>[28]</t>
-  </si>
-  <si>
-    <t>[29]</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[31]</t>
-  </si>
-  <si>
-    <t>[32]</t>
-  </si>
-  <si>
-    <t>[33]</t>
-  </si>
-  <si>
-    <t>[34]</t>
-  </si>
-  <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>[38]</t>
-  </si>
-  <si>
-    <t>[39]</t>
-  </si>
-  <si>
-    <t>[40]</t>
-  </si>
-  <si>
-    <t>[41]</t>
-  </si>
-  <si>
-    <t>[42]</t>
-  </si>
-  <si>
-    <t>[43]</t>
-  </si>
-  <si>
-    <t>[44]</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>[46]</t>
-  </si>
-  <si>
-    <t>[47]</t>
-  </si>
-  <si>
-    <t>[48]</t>
-  </si>
-  <si>
-    <t>[49]</t>
-  </si>
-  <si>
-    <t>[50]</t>
-  </si>
-  <si>
-    <t>[16,51,52,53,54,55,56,57,58]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -836,13 +840,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -850,13 +854,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -892,13 +896,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -906,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,13 +924,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -934,13 +938,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -948,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,13 +966,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -976,13 +980,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -990,13 +994,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,13 +1008,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1018,13 +1022,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1032,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,13 +1050,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1060,13 +1064,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1074,13 +1078,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1088,13 +1092,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,13 +1106,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1116,13 +1120,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1130,13 +1134,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1144,13 +1148,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1158,13 +1162,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1172,13 +1176,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1186,13 +1190,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,13 +1204,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,13 +1218,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,13 +1232,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,13 +1246,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1256,13 +1260,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1270,13 +1274,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,13 +1288,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,13 +1302,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1312,13 +1316,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,13 +1330,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1340,13 +1344,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1354,13 +1358,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1368,13 +1372,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,13 +1386,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1396,13 +1400,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,13 +1414,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,13 +1428,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1438,13 +1442,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1452,13 +1456,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75F04E-70CC-41BF-A76D-B37AD397BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E04D8-75F6-4A45-923E-AFC9FF5C4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
   <si>
     <t>long</t>
   </si>
@@ -391,6 +391,150 @@
   </si>
   <si>
     <t>option5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excuse me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not really.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I'll leavr him for now)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your foot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your boots?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You deserve it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Did he hear me?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Religious type?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Halo_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Wetherall_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Kicks_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[59]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>[69]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[78]</t>
+  </si>
+  <si>
+    <t>[79]</t>
+  </si>
+  <si>
+    <t>[80]</t>
+  </si>
+  <si>
+    <t>[81]</t>
+  </si>
+  <si>
+    <t>[82]</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>[73,85]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here, have these.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77,84]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1465,6 +1609,356 @@
         <v>99</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E04D8-75F6-4A45-923E-AFC9FF5C4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428AC90-FFAD-4C77-B83D-8FAB98BF24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14745" yWindow="285" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1959,6 +1959,861 @@
         <v>142</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428AC90-FFAD-4C77-B83D-8FAB98BF24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF4F9F-7564-4704-9F17-52CAC97181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="285" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="165">
   <si>
     <t>long</t>
   </si>
@@ -519,23 +517,87 @@
     <t>[82]</t>
   </si>
   <si>
+    <t>[73,85]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here, have these.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77,84]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Wetherall_Day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[83]</t>
-  </si>
-  <si>
-    <t>[73,85]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Here, have these.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[76]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[77,84]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[87]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feets doing OK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[88]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[89]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Echo_Day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[91]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You did well</t>
+  </si>
+  <si>
+    <t>[92]</t>
+  </si>
+  <si>
+    <t>[93]</t>
+  </si>
+  <si>
+    <t>[94]</t>
+  </si>
+  <si>
+    <t>[95]</t>
+  </si>
+  <si>
+    <t>[96]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[98]</t>
+  </si>
+  <si>
+    <t>[99]</t>
   </si>
 </sst>
 </file>
@@ -883,19 +945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="22.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -923,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -937,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -951,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -965,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -979,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -993,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1007,7 +1067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1035,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1049,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1063,7 +1123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1077,7 +1137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1091,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1105,7 +1165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1119,7 +1179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1133,7 +1193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1147,7 +1207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1161,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1189,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1203,7 +1263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1217,7 +1277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1231,7 +1291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1245,7 +1305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1259,7 +1319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1273,7 +1333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1287,7 +1347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1301,7 +1361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1315,7 +1375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1329,7 +1389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1343,7 +1403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1357,7 +1417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1371,7 +1431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1385,7 +1445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1399,7 +1459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1413,7 +1473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1427,7 +1487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1441,7 +1501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1455,7 +1515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1469,7 +1529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1483,7 +1543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1497,7 +1557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1511,7 +1571,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1525,7 +1585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1539,7 +1599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1553,7 +1613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1567,7 +1627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1581,7 +1641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1595,7 +1655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1609,7 +1669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1623,7 +1683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1637,7 +1697,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1651,7 +1711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1665,7 +1725,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1679,7 +1739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1693,7 +1753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1707,7 +1767,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1721,7 +1781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1735,7 +1795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1749,7 +1809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1763,7 +1823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1777,7 +1837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1791,7 +1851,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1805,21 +1865,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1833,7 +1893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1847,7 +1907,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1858,10 +1918,10 @@
         <v>119</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1872,10 +1932,10 @@
         <v>119</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1889,7 +1949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1903,7 +1963,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1917,7 +1977,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1931,7 +1991,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1945,7 +2005,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1956,860 +2016,1061 @@
         <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>

--- a/GameDesign/ExcelData/ConversationOption_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF4F9F-7564-4704-9F17-52CAC97181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54363545-EB73-4053-B294-7B8925E81B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="238">
   <si>
     <t>long</t>
   </si>
@@ -598,6 +598,245 @@
   </si>
   <si>
     <t>[99]</t>
+  </si>
+  <si>
+    <t>[100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+  </si>
+  <si>
+    <t>Jump - Halo_Day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Err… “The New Stamps”? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err… “Last of the Empresses”?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I don’t recall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[102]</t>
+  </si>
+  <si>
+    <t>[103]</t>
+  </si>
+  <si>
+    <t>[104]</t>
+  </si>
+  <si>
+    <t>[105]</t>
+  </si>
+  <si>
+    <t>[106]</t>
+  </si>
+  <si>
+    <t>[107]</t>
+  </si>
+  <si>
+    <t>[108]</t>
+  </si>
+  <si>
+    <t>[109]</t>
+  </si>
+  <si>
+    <t>[110]</t>
+  </si>
+  <si>
+    <t>[111]</t>
+  </si>
+  <si>
+    <t>[112]</t>
+  </si>
+  <si>
+    <t>[113]</t>
+  </si>
+  <si>
+    <t>Encourage Halo to open up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scold Halo for leaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[114]</t>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>Appeal to Halo’s amiability with Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture Halo about insubordination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask about his grandmother </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[121]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[122]</t>
+  </si>
+  <si>
+    <t>[123]</t>
+  </si>
+  <si>
+    <t>Your grandma did that?</t>
+  </si>
+  <si>
+    <t>[124]</t>
+  </si>
+  <si>
+    <t>[125]</t>
+  </si>
+  <si>
+    <t>[126]</t>
+  </si>
+  <si>
+    <t>[127]</t>
+  </si>
+  <si>
+    <t>Make a joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[128]</t>
+  </si>
+  <si>
+    <t>[129]</t>
+  </si>
+  <si>
+    <t>[130]</t>
+  </si>
+  <si>
+    <t>Jump - Kicks_Day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Kicks_Day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[131]</t>
+  </si>
+  <si>
+    <t>[132]</t>
+  </si>
+  <si>
+    <t>[133]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>[137]</t>
+  </si>
+  <si>
+    <t>[138]</t>
+  </si>
+  <si>
+    <t>[139]</t>
+  </si>
+  <si>
+    <t>[140]</t>
+  </si>
+  <si>
+    <t>Jump - Spartan_Day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Echo+Halo_Day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[141]</t>
+  </si>
+  <si>
+    <t>[142]</t>
+  </si>
+  <si>
+    <t>[143]</t>
+  </si>
+  <si>
+    <t>[144]</t>
+  </si>
+  <si>
+    <t>[145]</t>
+  </si>
+  <si>
+    <t>[146]</t>
+  </si>
+  <si>
+    <t>[147]</t>
+  </si>
+  <si>
+    <t>Finaldecision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[148]</t>
+  </si>
+  <si>
+    <t>[149]</t>
+  </si>
+  <si>
+    <t>[150]</t>
+  </si>
+  <si>
+    <t>[151]</t>
+  </si>
+  <si>
+    <t>[152]</t>
+  </si>
+  <si>
+    <t>[153]</t>
+  </si>
+  <si>
+    <t>Continue to Fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose to Surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose to Retreat </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -943,14 +1182,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
   </cols>
@@ -2208,6 +2447,12 @@
       <c r="B90" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="C90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2216,13 +2461,25 @@
       <c r="B91" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="C91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,7 +2487,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,7 +2501,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,6 +2517,12 @@
       <c r="B95" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="C95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2256,823 +2531,669 @@
       <c r="B96" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+      <c r="B143" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+      <c r="D143" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
